--- a/datasets/four_three_df.xlsx
+++ b/datasets/four_three_df.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weswa\Documents\R Working Directory\UnevenCrimeDrop\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6083A3A-706C-421A-908B-402E6F8F473D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1139286E-66E5-470F-B261-BE79F0FAE773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{468F2AD8-11FC-4B5B-B16E-F673C7D10455}"/>
   </bookViews>
@@ -57,22 +57,22 @@
     <t>Other countries-Violence</t>
   </si>
   <si>
-    <t>Sweden-Narcotics</t>
-  </si>
-  <si>
-    <t>Western countries-Narcotics</t>
-  </si>
-  <si>
-    <t>Other countries-Narcotics</t>
-  </si>
-  <si>
     <t>Sweden, foreign born parents-Theft</t>
   </si>
   <si>
     <t>Sweden, foreign born parents-Violence</t>
   </si>
   <si>
-    <t>Sweden, foreign born parents-Narcotics</t>
+    <t>Sweden-Drug</t>
+  </si>
+  <si>
+    <t>Sweden, foreign born parents-Drug</t>
+  </si>
+  <si>
+    <t>Western countries-Drug</t>
+  </si>
+  <si>
+    <t>Other countries-Drug</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
@@ -545,16 +545,16 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
